--- a/uploads/scholarship_result.xlsx
+++ b/uploads/scholarship_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="151">
   <si>
     <t>學號</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>胡少騏</t>
+  </si>
+  <si>
+    <t>S10350134</t>
+  </si>
+  <si>
+    <t>賴威智</t>
+  </si>
+  <si>
+    <t>S10350136</t>
+  </si>
+  <si>
+    <t>陳冠惟</t>
   </si>
   <si>
     <t>S10350227</t>
@@ -786,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1455,10 +1467,10 @@
         <v>98</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1466,16 +1478,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1483,16 +1495,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>103</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1506,10 +1518,10 @@
         <v>105</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1523,10 +1535,10 @@
         <v>107</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1540,10 +1552,10 @@
         <v>109</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1557,10 +1569,10 @@
         <v>111</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -1577,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -1594,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -1611,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -1625,10 +1637,10 @@
         <v>119</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -1642,10 +1654,10 @@
         <v>121</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -1659,10 +1671,10 @@
         <v>123</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1676,10 +1688,10 @@
         <v>125</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -1687,16 +1699,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>128</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -1704,16 +1716,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
         <v>130</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -1727,7 +1739,7 @@
         <v>132</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -1747,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -1764,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -1781,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -1798,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -1815,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -1849,9 +1861,43 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
         <v>84</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s">
         <v>11</v>
       </c>
     </row>

--- a/uploads/scholarship_result.xlsx
+++ b/uploads/scholarship_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>學號</t>
   </si>
@@ -38,6 +38,87 @@
   </si>
   <si>
     <t>領獎日期</t>
+  </si>
+  <si>
+    <t>S09350336</t>
+  </si>
+  <si>
+    <t>李品萱</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>S10350142</t>
+  </si>
+  <si>
+    <t>郭家鳴</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>S11350132</t>
+  </si>
+  <si>
+    <t>張定瑋</t>
+  </si>
+  <si>
+    <t>S11350207</t>
+  </si>
+  <si>
+    <t>廖育嫆</t>
+  </si>
+  <si>
+    <t>S11350314</t>
+  </si>
+  <si>
+    <t>巫羿葶</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>S12350117</t>
+  </si>
+  <si>
+    <t>黃柏璋</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>S12350219</t>
+  </si>
+  <si>
+    <t>劉承勛</t>
+  </si>
+  <si>
+    <t>S12350227</t>
+  </si>
+  <si>
+    <t>闕嘉薰</t>
+  </si>
+  <si>
+    <t>S12350229</t>
+  </si>
+  <si>
+    <t>蔡瑋峵</t>
+  </si>
+  <si>
+    <t>S13350125</t>
+  </si>
+  <si>
+    <t>蘇　昰</t>
+  </si>
+  <si>
+    <t>S13350322</t>
+  </si>
+  <si>
+    <t>黃國瑜</t>
   </si>
 </sst>
 </file>
@@ -369,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,6 +482,193 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
